--- a/src/main/resources/testData/data.xlsx
+++ b/src/main/resources/testData/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elgeo\Documents\swiggyframework\src\main\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\lmvproject\Projectswiggyy\src\main\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23D8E45E-50E1-4665-A169-0E70A57BE0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706CF6D3-1D06-4498-B2A0-A3D1A374130C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Assertions</t>
   </si>
@@ -59,13 +49,16 @@
   </si>
   <si>
     <t>Ahmedabad, Gujarat, India</t>
+  </si>
+  <si>
+    <t>Indi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +109,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -394,20 +387,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -429,13 +422,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
